--- a/data/trans_orig/IP07A10-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07A10-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69D700D0-3ABA-4BF1-9DA4-D199793946C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{31A93881-D705-427D-B1D4-6E3C05573380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{30FB77CA-9E9D-47A8-A3FF-9A44FB9AD503}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4877C45F-6CAC-46D2-A7BB-1D234ECCE489}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="603">
   <si>
     <t>Menores según frecuencia de haber podido disfrutar de su tiempo libre en 2007 (Tasa respuesta: 47,2%)</t>
   </si>
@@ -77,1789 +77,1777 @@
     <t>38,51%</t>
   </si>
   <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
   </si>
   <si>
     <t>39,97%</t>
   </si>
   <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>50,59%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
     <t>29,32%</t>
   </si>
   <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido disfrutar de su tiempo libre en 2012 (Tasa respuesta: 44,78%)</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>49,91%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido disfrutar de su tiempo libre en 2016 (Tasa respuesta: 47,27%)</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>51,03%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido disfrutar de su tiempo libre en 2023 (Tasa respuesta: 50,21%)</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>61,55%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
   </si>
   <si>
     <t>60,52%</t>
   </si>
   <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>1,36%</t>
+    <t>55,72%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
   </si>
   <si>
     <t>7,39%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>61,37%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
   </si>
   <si>
     <t>3,87%</t>
   </si>
   <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido disfrutar de su tiempo libre en 2012 (Tasa respuesta: 44,78%)</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>53,42%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido disfrutar de su tiempo libre en 2015 (Tasa respuesta: 47,27%)</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>51,03%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>67,84%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
   </si>
   <si>
     <t>7,2%</t>
   </si>
   <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido disfrutar de su tiempo libre en 2023 (Tasa respuesta: 50,21%)</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
-  </si>
-  <si>
-    <t>59,89%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
     <t>5,56%</t>
   </si>
   <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
   </si>
   <si>
     <t>4,9%</t>
   </si>
   <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
+    <t>6,61%</t>
   </si>
   <si>
     <t>0,87%</t>
   </si>
   <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
   </si>
   <si>
     <t>0,67%</t>
   </si>
   <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
+    <t>1,81%</t>
   </si>
   <si>
     <t>0,89%</t>
   </si>
   <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
+    <t>1,75%</t>
   </si>
 </sst>
 </file>
@@ -2271,7 +2259,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF52632-82CB-4DC7-BB43-5A9F1A90594C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{085EA6EB-C3A9-4B9F-AF50-704330D84729}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3083,7 +3071,7 @@
         <v>113</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M17" s="7">
         <v>88</v>
@@ -3092,13 +3080,13 @@
         <v>60207</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3113,13 +3101,13 @@
         <v>11548</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H18" s="7">
         <v>23</v>
@@ -3128,13 +3116,13 @@
         <v>16422</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M18" s="7">
         <v>40</v>
@@ -3143,13 +3131,13 @@
         <v>27969</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>36</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3170,7 +3158,7 @@
         <v>52</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -3179,13 +3167,13 @@
         <v>1175</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -3194,13 +3182,13 @@
         <v>1175</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3221,7 +3209,7 @@
         <v>52</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3230,13 +3218,13 @@
         <v>632</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -3245,13 +3233,13 @@
         <v>632</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3319,13 +3307,13 @@
         <v>108499</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H22" s="7">
         <v>139</v>
@@ -3334,13 +3322,13 @@
         <v>92807</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M22" s="7">
         <v>302</v>
@@ -3349,13 +3337,13 @@
         <v>201306</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3370,13 +3358,13 @@
         <v>167054</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H23" s="7">
         <v>228</v>
@@ -3385,13 +3373,13 @@
         <v>154018</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M23" s="7">
         <v>478</v>
@@ -3400,13 +3388,13 @@
         <v>321072</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3421,13 +3409,13 @@
         <v>65476</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>153</v>
+        <v>80</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H24" s="7">
         <v>99</v>
@@ -3436,13 +3424,13 @@
         <v>67387</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M24" s="7">
         <v>198</v>
@@ -3451,13 +3439,13 @@
         <v>132863</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3472,13 +3460,13 @@
         <v>2423</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>86</v>
+        <v>163</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -3487,13 +3475,13 @@
         <v>4007</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -3502,13 +3490,13 @@
         <v>6431</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3523,13 +3511,13 @@
         <v>1323</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>98</v>
+        <v>171</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -3544,7 +3532,7 @@
         <v>86</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -3553,13 +3541,13 @@
         <v>3407</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3601,7 +3589,7 @@
         <v>993</v>
       </c>
       <c r="N27" s="7">
-        <v>665078</v>
+        <v>665079</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>56</v>
@@ -3615,7 +3603,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -3634,7 +3622,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A5B51AB-E3C7-4A88-8BA5-2FCA1DCE52DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AEDFDDA-B2BC-48B1-A323-78A54A2F818F}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3651,7 +3639,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3758,13 +3746,13 @@
         <v>16853</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H4" s="7">
         <v>35</v>
@@ -3773,13 +3761,13 @@
         <v>23971</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M4" s="7">
         <v>59</v>
@@ -3788,13 +3776,13 @@
         <v>40823</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3809,13 +3797,13 @@
         <v>18046</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H5" s="7">
         <v>30</v>
@@ -3824,13 +3812,13 @@
         <v>21665</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M5" s="7">
         <v>55</v>
@@ -3839,13 +3827,13 @@
         <v>39711</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3860,13 +3848,13 @@
         <v>9079</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H6" s="7">
         <v>9</v>
@@ -3875,13 +3863,13 @@
         <v>6649</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M6" s="7">
         <v>23</v>
@@ -3890,13 +3878,13 @@
         <v>15728</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3911,13 +3899,13 @@
         <v>1875</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -3926,13 +3914,13 @@
         <v>798</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -3941,13 +3929,13 @@
         <v>2673</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3968,7 +3956,7 @@
         <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3983,7 +3971,7 @@
         <v>52</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4066,13 +4054,13 @@
         <v>96739</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H10" s="7">
         <v>108</v>
@@ -4081,13 +4069,13 @@
         <v>74836</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M10" s="7">
         <v>247</v>
@@ -4096,13 +4084,13 @@
         <v>171575</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>220</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4174,7 +4162,7 @@
         <v>231</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>232</v>
+        <v>77</v>
       </c>
       <c r="H12" s="7">
         <v>45</v>
@@ -4183,13 +4171,13 @@
         <v>31410</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M12" s="7">
         <v>91</v>
@@ -4198,13 +4186,13 @@
         <v>61259</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4219,13 +4207,13 @@
         <v>1936</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -4234,13 +4222,13 @@
         <v>1961</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -4276,7 +4264,7 @@
         <v>246</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>247</v>
+        <v>135</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4303,10 +4291,10 @@
         <v>243</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4374,13 +4362,13 @@
         <v>20611</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="H16" s="7">
         <v>43</v>
@@ -4389,13 +4377,13 @@
         <v>30370</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="M16" s="7">
         <v>73</v>
@@ -4404,13 +4392,13 @@
         <v>50981</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4425,13 +4413,13 @@
         <v>25581</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="H17" s="7">
         <v>37</v>
@@ -4440,7 +4428,7 @@
         <v>27635</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>147</v>
+        <v>261</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>262</v>
@@ -4548,7 +4536,7 @@
         <v>52</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -4715,10 +4703,10 @@
         <v>294</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>222</v>
+        <v>295</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4733,13 +4721,13 @@
         <v>141292</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H23" s="7">
         <v>205</v>
@@ -4748,13 +4736,13 @@
         <v>146628</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M23" s="7">
         <v>410</v>
@@ -4763,13 +4751,13 @@
         <v>287920</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4784,13 +4772,13 @@
         <v>47367</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H24" s="7">
         <v>61</v>
@@ -4799,13 +4787,13 @@
         <v>42726</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M24" s="7">
         <v>133</v>
@@ -4814,13 +4802,13 @@
         <v>90093</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4835,13 +4823,13 @@
         <v>5926</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>170</v>
+        <v>315</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>245</v>
+        <v>316</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>314</v>
+        <v>55</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -4850,13 +4838,13 @@
         <v>2759</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>86</v>
+        <v>246</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -4865,13 +4853,13 @@
         <v>8685</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4886,13 +4874,13 @@
         <v>3053</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>322</v>
+        <v>244</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -4901,13 +4889,13 @@
         <v>746</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
@@ -4916,10 +4904,10 @@
         <v>3799</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>326</v>
+        <v>86</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>327</v>
@@ -4978,7 +4966,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -4997,7 +4985,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0A1BAF3-99C6-4B95-8CBA-4ECBB25C7206}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFA1986F-179D-4F9B-AFA5-D2DB18F4E05C}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5274,13 +5262,13 @@
         <v>891</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -5295,7 +5283,7 @@
         <v>52</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -5304,13 +5292,13 @@
         <v>891</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>249</v>
+        <v>359</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5331,7 +5319,7 @@
         <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5346,7 +5334,7 @@
         <v>52</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -5361,7 +5349,7 @@
         <v>52</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>360</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5429,13 +5417,13 @@
         <v>99254</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H10" s="7">
         <v>152</v>
@@ -5444,13 +5432,13 @@
         <v>104711</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M10" s="7">
         <v>286</v>
@@ -5459,13 +5447,13 @@
         <v>203965</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5480,13 +5468,13 @@
         <v>110316</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H11" s="7">
         <v>145</v>
@@ -5495,13 +5483,13 @@
         <v>101561</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M11" s="7">
         <v>298</v>
@@ -5510,13 +5498,13 @@
         <v>211877</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5531,13 +5519,13 @@
         <v>29433</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H12" s="7">
         <v>51</v>
@@ -5546,13 +5534,13 @@
         <v>35545</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M12" s="7">
         <v>91</v>
@@ -5564,10 +5552,10 @@
         <v>230</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5582,13 +5570,13 @@
         <v>6315</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -5597,13 +5585,13 @@
         <v>5229</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>203</v>
+        <v>393</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
@@ -5612,13 +5600,13 @@
         <v>11544</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5633,13 +5621,13 @@
         <v>690</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>396</v>
+        <v>41</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -5648,13 +5636,13 @@
         <v>3513</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -5663,13 +5651,13 @@
         <v>4203</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>92</v>
+        <v>401</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>400</v>
+        <v>315</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5737,13 +5725,13 @@
         <v>35058</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H16" s="7">
         <v>39</v>
@@ -5752,13 +5740,13 @@
         <v>27799</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>406</v>
+        <v>224</v>
       </c>
       <c r="M16" s="7">
         <v>87</v>
@@ -5803,13 +5791,13 @@
         <v>35699</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>415</v>
       </c>
       <c r="M17" s="7">
         <v>95</v>
@@ -5818,13 +5806,13 @@
         <v>68727</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5839,13 +5827,13 @@
         <v>9339</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>420</v>
       </c>
       <c r="H18" s="7">
         <v>13</v>
@@ -5854,13 +5842,13 @@
         <v>8845</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>423</v>
       </c>
       <c r="M18" s="7">
         <v>26</v>
@@ -5869,13 +5857,13 @@
         <v>18185</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5890,13 +5878,13 @@
         <v>636</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -5905,13 +5893,13 @@
         <v>1530</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -5920,10 +5908,10 @@
         <v>2166</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>432</v>
@@ -5947,7 +5935,7 @@
         <v>52</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -5956,7 +5944,7 @@
         <v>524</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>42</v>
@@ -6045,7 +6033,7 @@
         <v>145533</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>436</v>
@@ -6066,7 +6054,7 @@
         <v>439</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>440</v>
+        <v>146</v>
       </c>
       <c r="M22" s="7">
         <v>406</v>
@@ -6075,13 +6063,13 @@
         <v>289468</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>442</v>
+        <v>261</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6096,13 +6084,13 @@
         <v>162040</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>445</v>
       </c>
       <c r="H23" s="7">
         <v>219</v>
@@ -6111,13 +6099,13 @@
         <v>154869</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>448</v>
       </c>
       <c r="M23" s="7">
         <v>444</v>
@@ -6126,13 +6114,13 @@
         <v>316909</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6147,13 +6135,13 @@
         <v>44603</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>454</v>
+        <v>387</v>
       </c>
       <c r="H24" s="7">
         <v>68</v>
@@ -6162,13 +6150,13 @@
         <v>47171</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="M24" s="7">
         <v>129</v>
@@ -6177,13 +6165,13 @@
         <v>91775</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6198,13 +6186,13 @@
         <v>7842</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>284</v>
+        <v>459</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>131</v>
+        <v>460</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -6213,13 +6201,13 @@
         <v>6759</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>462</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>464</v>
       </c>
       <c r="M25" s="7">
         <v>19</v>
@@ -6228,13 +6216,13 @@
         <v>14601</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>465</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6249,13 +6237,13 @@
         <v>690</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>242</v>
+        <v>466</v>
       </c>
       <c r="H26" s="7">
         <v>6</v>
@@ -6264,10 +6252,10 @@
         <v>4037</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>468</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>469</v>
@@ -6282,10 +6270,10 @@
         <v>54</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>92</v>
+        <v>397</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>249</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6341,7 +6329,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -6360,7 +6348,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF93767-8E9D-4462-93CD-EBDC710C5FB9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF221AF3-C488-42A0-BBCF-440439DF6C4A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6517,10 +6505,10 @@
         <v>477</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>478</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6535,13 +6523,13 @@
         <v>10874</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>481</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>482</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -6550,13 +6538,13 @@
         <v>5877</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>484</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>485</v>
+        <v>415</v>
       </c>
       <c r="M5" s="7">
         <v>19</v>
@@ -6565,13 +6553,13 @@
         <v>16751</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>486</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6586,13 +6574,13 @@
         <v>534</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>322</v>
+        <v>87</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -6601,13 +6589,13 @@
         <v>391</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -6616,13 +6604,13 @@
         <v>924</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6643,7 +6631,7 @@
         <v>52</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>493</v>
+        <v>199</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -6652,13 +6640,13 @@
         <v>548</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -6667,13 +6655,13 @@
         <v>548</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6694,7 +6682,7 @@
         <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>493</v>
+        <v>199</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6709,7 +6697,7 @@
         <v>52</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6724,7 +6712,7 @@
         <v>52</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6792,13 +6780,13 @@
         <v>179614</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="H10" s="7">
         <v>203</v>
@@ -6807,13 +6795,13 @@
         <v>149470</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="M10" s="7">
         <v>413</v>
@@ -6822,13 +6810,13 @@
         <v>329084</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>23</v>
+        <v>502</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6843,13 +6831,13 @@
         <v>95658</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>507</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>509</v>
       </c>
       <c r="H11" s="7">
         <v>101</v>
@@ -6858,13 +6846,13 @@
         <v>82762</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>510</v>
+        <v>262</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>511</v>
+        <v>349</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="M11" s="7">
         <v>204</v>
@@ -6873,13 +6861,13 @@
         <v>178420</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6894,13 +6882,13 @@
         <v>13923</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="H12" s="7">
         <v>17</v>
@@ -6909,13 +6897,13 @@
         <v>13817</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="M12" s="7">
         <v>32</v>
@@ -6924,13 +6912,13 @@
         <v>27741</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>430</v>
+        <v>520</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6945,13 +6933,13 @@
         <v>1644</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>87</v>
+        <v>522</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -6960,13 +6948,13 @@
         <v>1940</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>525</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>527</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -6978,10 +6966,10 @@
         <v>54</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>90</v>
+        <v>526</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>396</v>
+        <v>527</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6996,13 +6984,13 @@
         <v>3381</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>529</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>210</v>
+        <v>271</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -7011,13 +6999,13 @@
         <v>1577</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>208</v>
+        <v>529</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>530</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>244</v>
+        <v>91</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -7029,10 +7017,10 @@
         <v>531</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>532</v>
+        <v>435</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7100,13 +7088,13 @@
         <v>69127</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>534</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>535</v>
       </c>
       <c r="H16" s="7">
         <v>71</v>
@@ -7115,13 +7103,13 @@
         <v>51995</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>537</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>538</v>
       </c>
       <c r="M16" s="7">
         <v>156</v>
@@ -7130,13 +7118,13 @@
         <v>121123</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>540</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7151,13 +7139,13 @@
         <v>22585</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>543</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>544</v>
       </c>
       <c r="H17" s="7">
         <v>32</v>
@@ -7166,13 +7154,13 @@
         <v>23686</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>546</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>547</v>
       </c>
       <c r="M17" s="7">
         <v>61</v>
@@ -7181,13 +7169,13 @@
         <v>46271</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>549</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7202,7 +7190,7 @@
         <v>3651</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>394</v>
+        <v>550</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>551</v>
@@ -7283,13 +7271,13 @@
         <v>2064</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>277</v>
+        <v>562</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7304,13 +7292,13 @@
         <v>1127</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>528</v>
+        <v>327</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -7319,13 +7307,13 @@
         <v>823</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -7334,10 +7322,10 @@
         <v>1950</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>566</v>
+        <v>459</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>567</v>
@@ -7516,7 +7504,7 @@
         <v>587</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>553</v>
+        <v>588</v>
       </c>
       <c r="H24" s="7">
         <v>27</v>
@@ -7525,13 +7513,13 @@
         <v>20059</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="M24" s="7">
         <v>48</v>
@@ -7540,10 +7528,10 @@
         <v>38167</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>592</v>
+        <v>433</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>593</v>
@@ -7561,13 +7549,13 @@
         <v>3047</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>326</v>
+        <v>530</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>594</v>
+        <v>127</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -7576,13 +7564,13 @@
         <v>3149</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>595</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>596</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>597</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -7594,10 +7582,10 @@
         <v>560</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7612,13 +7600,13 @@
         <v>4508</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>566</v>
+        <v>459</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>599</v>
+        <v>243</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -7627,13 +7615,13 @@
         <v>2400</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>602</v>
+        <v>324</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="M26" s="7">
         <v>10</v>
@@ -7642,13 +7630,13 @@
         <v>6908</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>605</v>
+        <v>96</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7704,7 +7692,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
